--- a/ITProjectManagement/AgilePM/InductionDocument.xlsx
+++ b/ITProjectManagement/AgilePM/InductionDocument.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\AgilePM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\AgilePM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
     <sheet name="Docker" sheetId="4" r:id="rId5"/>
     <sheet name="K8s" sheetId="7" r:id="rId6"/>
-    <sheet name="Jenkins CI" sheetId="5" r:id="rId7"/>
+    <sheet name="Hibernate++" sheetId="8" r:id="rId7"/>
+    <sheet name="Jenkins CI" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="539">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1781,6 +1782,65 @@
   </si>
   <si>
     <t>Dockerize MySQL springBoot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4fVlAobgQGI&amp;list=PL4AFF701184976B25&amp;index=31</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Criteria API</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MzrzsKSJBt0&amp;list=PL4AFF701184976B25&amp;index=33</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2DXjdl8gzOo&amp;list=PL4AFF701184976B25&amp;index=34</t>
+  </si>
+  <si>
+    <t>Projections &amp; Query By Example</t>
+  </si>
+  <si>
+    <t>Cacheing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ISi_OkmuQbs&amp;list=PL4AFF701184976B25&amp;index=35</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TMZZg-HEjiE&amp;list=PL4AFF701184976B25&amp;index=36</t>
+  </si>
+  <si>
+    <t>Second Level Cache</t>
+  </si>
+  <si>
+    <t>Query Cache</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iwCdyr0bdkw&amp;list=PL4AFF701184976B25&amp;index=37</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/25233313/hibernate-criteria-query-select-where-clause</t>
+  </si>
+  <si>
+    <t>PersonServiceImpl class example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@PersistenceContext 
+EntityManager em;
+@Transactional 
+public List&lt;Person&gt; listPerson() { 
+    CriteriaQuery&lt;Person&gt; c = em.getCriteriaBuilder().createQuery(Person.class); 
+    Root&lt;Person&gt; from = c.from(Person.class); 
+    c.select(from);
+    c.where(em.getCriteriaBuilder().equal(from.get("owner_email"),"john@gmail.com")); // &lt;- this will add the restriction.
+    c.orderBy(em.getCriteriaBuilder().asc(from.get("firstname"))); 
+    return em.createQuery(c).getResultList(); 
+}</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2089,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2183,6 +2243,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2730,8 +2796,8 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9675,7 +9741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -10306,6 +10372,106 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/ITProjectManagement/AgilePM/InductionDocument.xlsx
+++ b/ITProjectManagement/AgilePM/InductionDocument.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="555">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1842,12 +1842,60 @@
     return em.createQuery(c).getResultList(); 
 }</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=az9AH3YOwJ8</t>
+  </si>
+  <si>
+    <t>GCP Storage and Dockerized App</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/CarbonRiderOnline/playlists</t>
+  </si>
+  <si>
+    <t>Google Cloud API Tutorial</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-cS_qI0XCE&amp;list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6&amp;index=2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JP019bx33ko&amp;list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6&amp;index=3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dCiJKZgKj3w&amp;list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6&amp;index=4</t>
+  </si>
+  <si>
+    <t>Spring boot project setup</t>
+  </si>
+  <si>
+    <t>Assign role to Service account</t>
+  </si>
+  <si>
+    <t>Service Account</t>
+  </si>
+  <si>
+    <t>Google Cloud Storage - Spring Boot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xGsm2GylOT8&amp;list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6&amp;index=5</t>
+  </si>
+  <si>
+    <t>Write file to GCP Storage with Spring Boot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQvxmHLbsKo&amp;list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6&amp;index=6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL4AFF701184976B25</t>
+  </si>
+  <si>
+    <t>Hibernate Tutorial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1984,6 +2032,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2089,7 +2153,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2230,6 +2294,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,11 +2312,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2699,31 +2772,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -8965,13 +9038,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -9766,13 +9839,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -10372,16 +10445,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10396,77 +10469,150 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
         <v>525</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="74" t="s">
         <v>530</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
         <v>533</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="74" t="s">
         <v>534</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+    <row r="9" spans="1:3" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
         <v>537</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B9" s="65" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.youtube.com/playlist?list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B2" r:id="rId15"/>
+    <hyperlink ref="B3" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/ITProjectManagement/AgilePM/InductionDocument.xlsx
+++ b/ITProjectManagement/AgilePM/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Docker" sheetId="4" r:id="rId5"/>
     <sheet name="K8s" sheetId="7" r:id="rId6"/>
     <sheet name="Hibernate++" sheetId="8" r:id="rId7"/>
-    <sheet name="Jenkins CI" sheetId="5" r:id="rId8"/>
+    <sheet name="GCP-GKE" sheetId="9" r:id="rId8"/>
+    <sheet name="Jenkins CI" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="571">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1890,12 +1891,60 @@
   <si>
     <t>Hibernate Tutorial</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/c/LearnGCPwithMahesh/playlists</t>
+  </si>
+  <si>
+    <t>Learn GCP with Mahesh</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/storage/docs/introduction</t>
+  </si>
+  <si>
+    <t>GCP cloud storage</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/storage/docs/creating-buckets#storage-create-bucket-java</t>
+  </si>
+  <si>
+    <t>Create Bucket</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OI-4DofgGIk&amp;list=PLMlcy8JM4YYqm5TeP4Z_lWR-6YymkJfey</t>
+  </si>
+  <si>
+    <t>GKE Tutorial Series</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCx3EJP_xj2cbuTtMseD5ppw/playlists</t>
+  </si>
+  <si>
+    <t>Youtube ATOM Channel</t>
+  </si>
+  <si>
+    <t>Youtube Mahesh Channel</t>
+  </si>
+  <si>
+    <t>GCP Documentation</t>
+  </si>
+  <si>
+    <t>File Upload in Local Spring Boot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7svczM5Xj9o</t>
+  </si>
+  <si>
+    <t>File Upload Using REST API in Local Spring Boot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHLxdUNn-Dg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2048,6 +2097,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2153,7 +2210,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2298,6 +2355,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2311,17 +2380,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2772,31 +2830,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -9038,13 +9096,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -9818,7 +9876,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9839,13 +9897,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -10447,8 +10505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10470,7 +10528,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>554</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -10478,7 +10536,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="68" t="s">
         <v>525</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10486,7 +10544,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="68" t="s">
         <v>526</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -10494,7 +10552,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="68" t="s">
         <v>529</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -10502,7 +10560,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="68" t="s">
         <v>530</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10510,7 +10568,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="68" t="s">
         <v>533</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -10518,7 +10576,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="68" t="s">
         <v>534</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -10526,7 +10584,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="69" t="s">
         <v>537</v>
       </c>
       <c r="B9" s="65" t="s">
@@ -10537,7 +10595,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="66" t="s">
         <v>542</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -10545,7 +10603,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="70" t="s">
         <v>548</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -10553,7 +10611,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="70" t="s">
         <v>547</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10561,7 +10619,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="70" t="s">
         <v>546</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -10569,7 +10627,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="70" t="s">
         <v>549</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -10577,7 +10635,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="70" t="s">
         <v>551</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10585,7 +10643,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="68" t="s">
         <v>540</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -10618,6 +10676,109 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="70" t="s">
+        <v>560</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3" location="storage-create-bucket-java"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
